--- a/data/trans_orig/P36B06_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P36B06_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{88E9F5BE-0BF5-458B-962C-71AC2056EB56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7D8BE7AB-AAF6-45A5-9A2E-08A075FCE0FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{DE57FE31-8572-460F-8B7D-5ED5E89E0F89}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{6466FA72-CBAB-4873-A85F-0FB13EAAD879}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="145">
   <si>
     <t>Población según el número de raciones de mantequilla, margarina o nata que consume al día en 2023 (Tasa respuesta: 99,66%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>27,5%</t>
   </si>
   <si>
-    <t>21,06%</t>
-  </si>
-  <si>
-    <t>34,99%</t>
+    <t>20,56%</t>
+  </si>
+  <si>
+    <t>35,21%</t>
   </si>
   <si>
     <t>26,58%</t>
   </si>
   <si>
-    <t>20,39%</t>
-  </si>
-  <si>
-    <t>34,16%</t>
+    <t>20,37%</t>
+  </si>
+  <si>
+    <t>33,11%</t>
   </si>
   <si>
     <t>27,05%</t>
   </si>
   <si>
-    <t>22,04%</t>
-  </si>
-  <si>
-    <t>31,96%</t>
+    <t>22,46%</t>
+  </si>
+  <si>
+    <t>32,07%</t>
   </si>
   <si>
     <t>Menos de una al día</t>
@@ -104,28 +104,28 @@
     <t>72,5%</t>
   </si>
   <si>
-    <t>65,01%</t>
-  </si>
-  <si>
-    <t>78,94%</t>
+    <t>64,79%</t>
+  </si>
+  <si>
+    <t>79,44%</t>
   </si>
   <si>
     <t>73,42%</t>
   </si>
   <si>
-    <t>65,84%</t>
-  </si>
-  <si>
-    <t>79,61%</t>
+    <t>66,89%</t>
+  </si>
+  <si>
+    <t>79,63%</t>
   </si>
   <si>
     <t>72,95%</t>
   </si>
   <si>
-    <t>68,04%</t>
-  </si>
-  <si>
-    <t>77,96%</t>
+    <t>67,93%</t>
+  </si>
+  <si>
+    <t>77,54%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,55 +137,55 @@
     <t>25,86%</t>
   </si>
   <si>
-    <t>20,58%</t>
-  </si>
-  <si>
-    <t>31,6%</t>
+    <t>20,81%</t>
+  </si>
+  <si>
+    <t>31,48%</t>
   </si>
   <si>
     <t>28,96%</t>
   </si>
   <si>
-    <t>24,11%</t>
-  </si>
-  <si>
-    <t>36,82%</t>
+    <t>24,49%</t>
+  </si>
+  <si>
+    <t>36,71%</t>
   </si>
   <si>
     <t>27,53%</t>
   </si>
   <si>
-    <t>24,07%</t>
-  </si>
-  <si>
-    <t>31,9%</t>
+    <t>24,16%</t>
+  </si>
+  <si>
+    <t>32,54%</t>
   </si>
   <si>
     <t>74,14%</t>
   </si>
   <si>
-    <t>68,4%</t>
-  </si>
-  <si>
-    <t>79,42%</t>
+    <t>68,52%</t>
+  </si>
+  <si>
+    <t>79,19%</t>
   </si>
   <si>
     <t>71,04%</t>
   </si>
   <si>
-    <t>63,18%</t>
-  </si>
-  <si>
-    <t>75,89%</t>
+    <t>63,29%</t>
+  </si>
+  <si>
+    <t>75,51%</t>
   </si>
   <si>
     <t>72,47%</t>
   </si>
   <si>
-    <t>68,1%</t>
-  </si>
-  <si>
-    <t>75,93%</t>
+    <t>67,46%</t>
+  </si>
+  <si>
+    <t>75,84%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -194,163 +194,169 @@
     <t>24,39%</t>
   </si>
   <si>
-    <t>20,59%</t>
-  </si>
-  <si>
-    <t>28,4%</t>
+    <t>20,52%</t>
+  </si>
+  <si>
+    <t>28,23%</t>
   </si>
   <si>
     <t>25,45%</t>
   </si>
   <si>
-    <t>22,24%</t>
-  </si>
-  <si>
-    <t>28,82%</t>
+    <t>22,62%</t>
+  </si>
+  <si>
+    <t>29,02%</t>
   </si>
   <si>
     <t>24,93%</t>
   </si>
   <si>
-    <t>22,61%</t>
+    <t>22,57%</t>
+  </si>
+  <si>
+    <t>27,58%</t>
+  </si>
+  <si>
+    <t>75,61%</t>
+  </si>
+  <si>
+    <t>71,77%</t>
+  </si>
+  <si>
+    <t>79,48%</t>
+  </si>
+  <si>
+    <t>74,55%</t>
+  </si>
+  <si>
+    <t>70,98%</t>
+  </si>
+  <si>
+    <t>77,38%</t>
+  </si>
+  <si>
+    <t>75,07%</t>
+  </si>
+  <si>
+    <t>72,42%</t>
+  </si>
+  <si>
+    <t>77,43%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>20,91%</t>
+  </si>
+  <si>
+    <t>16,48%</t>
+  </si>
+  <si>
+    <t>24,67%</t>
+  </si>
+  <si>
+    <t>22,52%</t>
+  </si>
+  <si>
+    <t>19,87%</t>
+  </si>
+  <si>
+    <t>25,25%</t>
+  </si>
+  <si>
+    <t>21,73%</t>
+  </si>
+  <si>
+    <t>18,85%</t>
+  </si>
+  <si>
+    <t>24,05%</t>
+  </si>
+  <si>
+    <t>79,09%</t>
+  </si>
+  <si>
+    <t>75,33%</t>
+  </si>
+  <si>
+    <t>83,52%</t>
+  </si>
+  <si>
+    <t>77,48%</t>
+  </si>
+  <si>
+    <t>74,75%</t>
+  </si>
+  <si>
+    <t>80,13%</t>
+  </si>
+  <si>
+    <t>78,27%</t>
+  </si>
+  <si>
+    <t>75,95%</t>
+  </si>
+  <si>
+    <t>81,15%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>24,01%</t>
+  </si>
+  <si>
+    <t>20,24%</t>
+  </si>
+  <si>
+    <t>27,43%</t>
+  </si>
+  <si>
+    <t>24,55%</t>
+  </si>
+  <si>
+    <t>21,85%</t>
   </si>
   <si>
     <t>27,62%</t>
   </si>
   <si>
-    <t>75,61%</t>
-  </si>
-  <si>
-    <t>71,6%</t>
-  </si>
-  <si>
-    <t>79,41%</t>
-  </si>
-  <si>
-    <t>74,55%</t>
-  </si>
-  <si>
-    <t>71,18%</t>
-  </si>
-  <si>
-    <t>77,76%</t>
-  </si>
-  <si>
-    <t>75,07%</t>
+    <t>24,28%</t>
+  </si>
+  <si>
+    <t>22,07%</t>
+  </si>
+  <si>
+    <t>26,56%</t>
+  </si>
+  <si>
+    <t>75,99%</t>
+  </si>
+  <si>
+    <t>72,57%</t>
+  </si>
+  <si>
+    <t>79,76%</t>
+  </si>
+  <si>
+    <t>75,45%</t>
   </si>
   <si>
     <t>72,38%</t>
   </si>
   <si>
-    <t>77,39%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>20,91%</t>
-  </si>
-  <si>
-    <t>16,61%</t>
-  </si>
-  <si>
-    <t>24,73%</t>
-  </si>
-  <si>
-    <t>22,52%</t>
-  </si>
-  <si>
-    <t>20,09%</t>
-  </si>
-  <si>
-    <t>25,43%</t>
-  </si>
-  <si>
-    <t>21,73%</t>
-  </si>
-  <si>
-    <t>19,08%</t>
-  </si>
-  <si>
-    <t>23,98%</t>
-  </si>
-  <si>
-    <t>79,09%</t>
-  </si>
-  <si>
-    <t>75,27%</t>
-  </si>
-  <si>
-    <t>83,39%</t>
-  </si>
-  <si>
-    <t>77,48%</t>
-  </si>
-  <si>
-    <t>74,57%</t>
-  </si>
-  <si>
-    <t>79,91%</t>
-  </si>
-  <si>
-    <t>78,27%</t>
-  </si>
-  <si>
-    <t>76,02%</t>
-  </si>
-  <si>
-    <t>80,92%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>24,01%</t>
-  </si>
-  <si>
-    <t>20,71%</t>
-  </si>
-  <si>
-    <t>24,55%</t>
-  </si>
-  <si>
-    <t>21,84%</t>
-  </si>
-  <si>
-    <t>27,47%</t>
-  </si>
-  <si>
-    <t>24,28%</t>
-  </si>
-  <si>
-    <t>22,12%</t>
-  </si>
-  <si>
-    <t>26,48%</t>
-  </si>
-  <si>
-    <t>75,99%</t>
-  </si>
-  <si>
-    <t>79,29%</t>
-  </si>
-  <si>
-    <t>75,45%</t>
-  </si>
-  <si>
-    <t>72,53%</t>
-  </si>
-  <si>
-    <t>78,16%</t>
+    <t>78,15%</t>
   </si>
   <si>
     <t>75,72%</t>
   </si>
   <si>
-    <t>73,52%</t>
-  </si>
-  <si>
-    <t>77,88%</t>
+    <t>73,44%</t>
+  </si>
+  <si>
+    <t>77,93%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -359,109 +365,109 @@
     <t>24,43%</t>
   </si>
   <si>
-    <t>21,85%</t>
-  </si>
-  <si>
-    <t>27,43%</t>
+    <t>21,66%</t>
+  </si>
+  <si>
+    <t>27,24%</t>
   </si>
   <si>
     <t>32,0%</t>
   </si>
   <si>
-    <t>23,08%</t>
-  </si>
-  <si>
-    <t>52,92%</t>
+    <t>23,07%</t>
+  </si>
+  <si>
+    <t>52,94%</t>
   </si>
   <si>
     <t>28,94%</t>
   </si>
   <si>
-    <t>23,54%</t>
-  </si>
-  <si>
-    <t>43,77%</t>
+    <t>23,31%</t>
+  </si>
+  <si>
+    <t>42,95%</t>
   </si>
   <si>
     <t>75,57%</t>
   </si>
   <si>
-    <t>72,57%</t>
-  </si>
-  <si>
-    <t>78,15%</t>
+    <t>72,76%</t>
+  </si>
+  <si>
+    <t>78,34%</t>
   </si>
   <si>
     <t>68,0%</t>
   </si>
   <si>
-    <t>47,08%</t>
-  </si>
-  <si>
-    <t>76,92%</t>
+    <t>47,06%</t>
+  </si>
+  <si>
+    <t>76,93%</t>
   </si>
   <si>
     <t>71,06%</t>
   </si>
   <si>
-    <t>56,23%</t>
-  </si>
-  <si>
-    <t>76,46%</t>
+    <t>57,05%</t>
+  </si>
+  <si>
+    <t>76,69%</t>
   </si>
   <si>
     <t>24,12%</t>
   </si>
   <si>
-    <t>22,2%</t>
-  </si>
-  <si>
-    <t>25,88%</t>
+    <t>22,42%</t>
+  </si>
+  <si>
+    <t>25,98%</t>
   </si>
   <si>
     <t>27,06%</t>
   </si>
   <si>
-    <t>24,32%</t>
-  </si>
-  <si>
-    <t>36,5%</t>
+    <t>24,42%</t>
+  </si>
+  <si>
+    <t>34,1%</t>
   </si>
   <si>
     <t>25,68%</t>
   </si>
   <si>
-    <t>24,02%</t>
-  </si>
-  <si>
-    <t>29,96%</t>
+    <t>24,1%</t>
+  </si>
+  <si>
+    <t>30,05%</t>
   </si>
   <si>
     <t>75,88%</t>
   </si>
   <si>
-    <t>74,12%</t>
-  </si>
-  <si>
-    <t>77,8%</t>
+    <t>74,02%</t>
+  </si>
+  <si>
+    <t>77,58%</t>
   </si>
   <si>
     <t>72,94%</t>
   </si>
   <si>
-    <t>63,5%</t>
-  </si>
-  <si>
-    <t>75,68%</t>
+    <t>65,9%</t>
+  </si>
+  <si>
+    <t>75,58%</t>
   </si>
   <si>
     <t>74,32%</t>
   </si>
   <si>
-    <t>70,04%</t>
-  </si>
-  <si>
-    <t>75,98%</t>
+    <t>69,95%</t>
+  </si>
+  <si>
+    <t>75,9%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -876,7 +882,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFF6D314-8A22-434B-AF75-4D79874AE78E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B4E211F-4B66-442F-BB68-D4D9D02CFEBB}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1626,7 +1632,7 @@
         <v>90</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>228</v>
@@ -1635,13 +1641,13 @@
         <v>146365</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>379</v>
@@ -1650,13 +1656,13 @@
         <v>289227</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1671,13 +1677,13 @@
         <v>452041</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>21</v>
+        <v>99</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>772</v>
@@ -1686,13 +1692,13 @@
         <v>449860</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>1279</v>
@@ -1701,13 +1707,13 @@
         <v>901901</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1763,7 +1769,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -1775,13 +1781,13 @@
         <v>169602</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H19" s="7">
         <v>364</v>
@@ -1790,13 +1796,13 @@
         <v>327765</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="M19" s="7">
         <v>599</v>
@@ -1805,13 +1811,13 @@
         <v>497367</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1826,13 +1832,13 @@
         <v>524572</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="H20" s="7">
         <v>1340</v>
@@ -1841,13 +1847,13 @@
         <v>696655</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="M20" s="7">
         <v>2128</v>
@@ -1856,13 +1862,13 @@
         <v>1221227</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1930,13 +1936,13 @@
         <v>812886</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="H22" s="7">
         <v>1214</v>
@@ -1945,13 +1951,13 @@
         <v>1029054</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="M22" s="7">
         <v>2002</v>
@@ -1960,13 +1966,13 @@
         <v>1841939</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1981,13 +1987,13 @@
         <v>2556947</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="H23" s="7">
         <v>4139</v>
@@ -1996,13 +2002,13 @@
         <v>2773454</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M23" s="7">
         <v>6711</v>
@@ -2011,13 +2017,13 @@
         <v>5330402</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2073,7 +2079,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
